--- a/doc/myblog-api/DB设计.xlsx
+++ b/doc/myblog-api/DB设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21071" windowHeight="7007" activeTab="2"/>
+    <workbookView windowWidth="21071" windowHeight="7007"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="4" r:id="rId1"/>
@@ -28,20 +28,18 @@
     <t>article表创建语句</t>
   </si>
   <si>
-    <t>CREATE TABLE `myblog`.`article` (
-  `id` INT NOT NULL AUTO_INCREMENT,
-  `article_type` INT NOT NULL COMMENT '类型：0：技术，1：文学',
-  `title` VARCHAR(50) NOT NULL COMMENT '标题',
-  `content` LONGTEXT NULL COMMENT '内容',
-  `read_time` INT NULL COMMENT '阅读次数',
-  `video_address` VARCHAR(50) NULL COMMENT '视频地址，bilibili',
-  `create_time` TIMESTAMP NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',
-  `update_time` TIMESTAMP NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP COMMENT '更新时间',
-  PRIMARY KEY (`id`))
-ENGINE = InnoDB
-DEFAULT CHARACTER SET = utf8mb4
-COLLATE = utf8mb4_0900_ai_ci
-COMMENT = '文章列表数据表';</t>
+    <t>CREATE TABLE `article` (
+  `id` int NOT NULL AUTO_INCREMENT,
+  `article_type` int NOT NULL COMMENT '类型：0：技术，1：文学',
+  `title` varchar(50) NOT NULL COMMENT '标题',
+  `content` longtext COMMENT '内容',
+  `read_time` int DEFAULT NULL COMMENT '阅读次数',
+  `video_address` varchar(50) DEFAULT NULL COMMENT '视频地址，bilibili',
+  `create_time` timestamp NULL DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间',
+  `update_time` timestamp NULL DEFAULT CURRENT_TIMESTAMP ON UPDATE CURRENT_TIMESTAMP COMMENT '更新时间',
+  `dispaly` tinyint(1) DEFAULT '1',
+  PRIMARY KEY (`id`)
+) ENGINE=InnoDB AUTO_INCREMENT=2 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='文章列表数据表'</t>
   </si>
   <si>
     <t>technology-menu</t>
@@ -1159,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1177,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="230.4" spans="1:2">
+    <row r="3" ht="216" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:7">
+    <row r="9" ht="43.2" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1365,7 +1363,7 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1415,8 +1413,6 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1425,13 +1421,9 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1440,15 +1432,12 @@
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1457,15 +1446,12 @@
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1474,15 +1460,12 @@
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1491,13 +1474,9 @@
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>48</v>
       </c>

--- a/doc/myblog-api/DB设计.xlsx
+++ b/doc/myblog-api/DB设计.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21071" windowHeight="7007"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="4" r:id="rId1"/>
     <sheet name="article" sheetId="1" r:id="rId2"/>
     <sheet name="technology-menu" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="product_type" sheetId="6" r:id="rId4"/>
+    <sheet name="product" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>数据库创建语句</t>
   </si>
@@ -42,7 +43,57 @@
 ) ENGINE=InnoDB AUTO_INCREMENT=2 DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci COMMENT='文章列表数据表'</t>
   </si>
   <si>
-    <t>technology-menu</t>
+    <t>文章列表数据表</t>
+  </si>
+  <si>
+    <t>technology-menu表创建语句</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `myblog`.`technology-menu` (
+  `id` VARCHAR(50) NOT NULL COMMENT 'ID,规则：x-yyy\nx:表示层级/yyy表示对应目录或者文章id',
+  `parent_id` VARCHAR(50) NULL COMMENT '父级id',
+  `menu_name` VARCHAR(50) NOT NULL COMMENT '显示菜单的名称',
+  `menu_type` TINYINT(1) NOT NULL COMMENT '类型：0: 目录，1：文章',
+  `sort_no` INT NOT NULL COMMENT '排序',
+  `icon` VARCHAR(50) NULL COMMENT '图标',
+  PRIMARY KEY (`id`))
+ENGINE = InnoDB
+DEFAULT CHARACTER SET = utf8mb4
+COMMENT = '技术分享菜单';</t>
+  </si>
+  <si>
+    <t>技术分享菜单</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `product_type` (
+  `id` int NOT NULL AUTO_INCREMENT,
+  `name` varchar(50) NOT NULL,
+  PRIMARY KEY (`id`)
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `myblog`.`product` (
+  `id` INT NOT NULL AUTO_INCREMENT,
+  `type_id` INT NOT NULL,
+  `tags` VARCHAR(50) NULL COMMENT '标签，数据格式：\"aa\",\"bb\"',
+  `demo_address` VARCHAR(50) NULL,
+  `git_address` VARCHAR(50) NULL,
+  `gitee_address` VARCHAR(50) NULL,
+  `desciption` VARCHAR(300) NULL,
+  `article_id` INT NULL COMMENT '文章id',
+  `pic_address` VARCHAR(50) NULL COMMENT '展示图地址',
+  `is_recommend` TINYINT(1) NULL COMMENT '是否推荐，0：不推荐，1：推荐',
+  `recommend_sort` INT NULL COMMENT '推荐显示顺序',
+  `ali_cloud_address` VARCHAR(50) NULL COMMENT '阿里云盘地址',
+  PRIMARY KEY (`id`))
+ENGINE = InnoDB
+DEFAULT CHARACTER SET = utf8mb4;</t>
   </si>
   <si>
     <t>列名</t>
@@ -176,6 +227,87 @@
   </si>
   <si>
     <t>图标</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar, 50</t>
+  </si>
+  <si>
+    <t>类型名</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>标签，数据格式："aa","bb"</t>
+  </si>
+  <si>
+    <t>demo_address</t>
+  </si>
+  <si>
+    <t>在线演示地址</t>
+  </si>
+  <si>
+    <t>git_address</t>
+  </si>
+  <si>
+    <t>git代码地址</t>
+  </si>
+  <si>
+    <t>gitee_address</t>
+  </si>
+  <si>
+    <t>gitee代码地址</t>
+  </si>
+  <si>
+    <t>desciption</t>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>article_id</t>
+  </si>
+  <si>
+    <t>文章id</t>
+  </si>
+  <si>
+    <t>pic_address</t>
+  </si>
+  <si>
+    <t>展示图地址</t>
+  </si>
+  <si>
+    <t>is_recommend</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>是否推荐，0：不推荐，1：推荐</t>
+  </si>
+  <si>
+    <t>recommend_sort</t>
+  </si>
+  <si>
+    <t>推荐显示顺序</t>
+  </si>
+  <si>
+    <t>ali_cloud_address</t>
+  </si>
+  <si>
+    <t>阿里云盘地址</t>
   </si>
 </sst>
 </file>
@@ -791,12 +923,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1155,16 +1290,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="35.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="76.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="29.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1175,17 +1311,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="216" spans="1:2">
+    <row r="3" ht="216" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="172.8" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="242" customHeight="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1361,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1215,140 +1376,140 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1525,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1379,110 +1540,110 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1494,16 +1655,282 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>